--- a/7.Resource-Constrained.xlsx
+++ b/7.Resource-Constrained.xlsx
@@ -750,7 +750,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$8:$D$10" spid="_x0000_s1661"/>
+                  <a14:cameraTool cellRange="$B$8:$D$10" spid="_x0000_s1727"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -818,7 +818,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$F$8:$H$10" spid="_x0000_s1662"/>
+                  <a14:cameraTool cellRange="$F$8:$H$10" spid="_x0000_s1728"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -886,7 +886,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$12:$D$14" spid="_x0000_s1663"/>
+                  <a14:cameraTool cellRange="$B$12:$D$14" spid="_x0000_s1729"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1057,7 +1057,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$F$12:$H$14" spid="_x0000_s1664"/>
+                  <a14:cameraTool cellRange="$F$12:$H$14" spid="_x0000_s1730"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1178,7 +1178,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$F$16:$H$18" spid="_x0000_s1665"/>
+                  <a14:cameraTool cellRange="$F$16:$H$18" spid="_x0000_s1731"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1296,7 +1296,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$16:$D$18" spid="_x0000_s1666"/>
+                  <a14:cameraTool cellRange="$B$16:$D$18" spid="_x0000_s1732"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1414,7 +1414,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$20:$D$22" spid="_x0000_s1667"/>
+                  <a14:cameraTool cellRange="$B$20:$D$22" spid="_x0000_s1733"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1532,7 +1532,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$F$20:$H$22" spid="_x0000_s1668"/>
+                  <a14:cameraTool cellRange="$F$20:$H$22" spid="_x0000_s1734"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1700,7 +1700,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$24:$D$26" spid="_x0000_s1669"/>
+                  <a14:cameraTool cellRange="$B$24:$D$26" spid="_x0000_s1735"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1871,7 +1871,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$F$24:$H$26" spid="_x0000_s1670"/>
+                  <a14:cameraTool cellRange="$F$24:$H$26" spid="_x0000_s1736"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1939,7 +1939,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$28:$D$30" spid="_x0000_s1671"/>
+                  <a14:cameraTool cellRange="$B$28:$D$30" spid="_x0000_s1737"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2412,9 +2412,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BW77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AK51" sqref="AK51"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="9" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AP48" sqref="AP48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="19.05" customHeight="1" x14ac:dyDescent="0.3"/>
